--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="525">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-03-22T19:58:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1428,13 +1428,6 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t>value:code}
-type:focus}</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
 cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
@@ -1645,31 +1638,6 @@
   </si>
   <si>
     <t>.component.section</t>
-  </si>
-  <si>
-    <t>vaccination</t>
-  </si>
-  <si>
-    <t>Vaccination Status Section</t>
-  </si>
-  <si>
-    <t>Vaccination Status Section lists the relvant vaccinations received by the patient</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="11369-6"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReferenceQR|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunizationRecommendation)
-</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +1957,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN87"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8802,7 +8770,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>79</v>
@@ -8862,14 +8830,16 @@
         <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>457</v>
+        <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>453</v>
@@ -8884,16 +8854,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8904,7 +8874,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9016,7 +8986,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9130,7 +9100,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9246,11 +9216,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9272,16 +9242,16 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9330,7 +9300,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9362,7 +9332,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9388,16 +9358,16 @@
         <v>179</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9425,10 +9395,10 @@
         <v>245</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9446,7 +9416,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9478,7 +9448,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9504,10 +9474,10 @@
         <v>309</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
@@ -9560,7 +9530,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9592,7 +9562,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9618,13 +9588,13 @@
         <v>449</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9674,7 +9644,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9695,7 +9665,7 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9706,7 +9676,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9732,13 +9702,13 @@
         <v>119</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9788,7 +9758,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9797,7 +9767,7 @@
         <v>89</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>101</v>
@@ -9806,10 +9776,10 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9820,7 +9790,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9846,16 +9816,16 @@
         <v>109</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9883,10 +9853,10 @@
         <v>173</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9904,7 +9874,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9922,7 +9892,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>161</v>
@@ -9936,7 +9906,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9962,16 +9932,16 @@
         <v>179</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9999,10 +9969,10 @@
         <v>113</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
@@ -10020,7 +9990,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10038,7 +10008,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>161</v>
@@ -10052,7 +10022,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10078,13 +10048,13 @@
         <v>449</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10134,7 +10104,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10143,7 +10113,7 @@
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>101</v>
@@ -10152,10 +10122,10 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10166,7 +10136,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10192,16 +10162,16 @@
         <v>179</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10229,10 +10199,10 @@
         <v>113</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>77</v>
@@ -10250,7 +10220,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10259,7 +10229,7 @@
         <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>101</v>
@@ -10268,7 +10238,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>161</v>
@@ -10282,7 +10252,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10308,13 +10278,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10364,7 +10334,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10373,7 +10343,7 @@
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>101</v>
@@ -10382,1626 +10352,20 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN87" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN87">
+  <autoFilter ref="A1:AN73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12011,7 +10375,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T19:58:30+00:00</t>
+    <t>2022-03-22T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:04:56+00:00</t>
+    <t>2022-03-22T20:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:08:10+00:00</t>
+    <t>2022-03-22T21:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T21:10:15+00:00</t>
+    <t>2022-03-23T17:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T17:44:48+00:00</t>
+    <t>2022-03-23T20:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:45:19+00:00</t>
+    <t>2022-03-23T20:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
